--- a/Testdata/TC_64.xlsx
+++ b/Testdata/TC_64.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>GRoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlktLa8RqzDHSzI1SyDEmu47wUI3IsTU2RCjm0rLcUaJEiTVEUxaZIr+hTigLdLtoESHd7+Zdg7d0+9Rd65sLhRXK22i6MNefc5syZcx2jt28WvnFNopiGwaOKXbMqBgnc0KPB7FElYZdVe7/ytoO6Ny7xT3GEF4QBsQFcQXx4E9NHlTljy0PTXK1WtVWjFkYzs25ZtvnuoD9252SBqzSIGQ5cUtFc3uu5Kg5qe4sBYdjDDEvOR5XeuFdrE+p2ADbAAZ6RqNZKYhqQOO4GjDJKYs4ZEcxIuzP4jjyYU6/t12xkbsAzylZCfU/SFSglXNHBtmRCF8SpW/ZB1TqoNuyJbR/W9w8bjdrewf57KaMmRH0cszGJrqkrAGOGF0vBbh00bNuu7zcayNxKBLIyAzho6Hsjck1j4rWJ78c7WcRUF9h0GZx6N2NayMzxKkFvrsJxhJfzCWU+2U2N0aBlLAKlSybEQUdhRFyw3xupdEJWw0iZdbLsA3YypxFbd/B6Z1lnMYmGS26k3Vgd1AkD1vRJxM6WcNfEA1cAhMOihCDzHmTG1KGxC980SIjnXGI/zjMVkOg8jK7iJXbJCcSxyWWsAj/EHjgcozGjbpwJ2MCg0yhcgkjYvRX63hGIVSpuQWjRvQBszPdtheFVWXoRicS1iguGS11glpJvwNF4Hq6Ggb8eJ9PYjeiUeJ1WSr0Vh3hEKu52ErNwAVpkICRhOcga/kEElsGoQ1y6wP6pD1aMHYjdIgA1ExZeUtYO/WQRaHOWoOgcTjQhN/qEeo2GcLsBN3oY9IKUXpp5K6rIMApXes9NhDBCDtyM3dTJNhFl4g7A0uvbxIgb4ac8oj4UiPxd5KBFrxjPCWFbXUJiEM+FR7zkOK31SbKYQnxNIciuxa4xMjM8Aj8FZwe9HAvKSFX8TCzrUPyAHhqNuoF3P12KRLBdbi/HBlwJhOBMfsvHwRVAzymbnzTTs2zBIGmBe+k3cQhCd+njtQBrK+VhqBe4fuIRmRF6waVwUa6bor4XjzZAfQhyB+FgPVkveWYw76HokEuc+FCsGOSUWZYuSmDUjK/KNHkQOov89MYd3grE0Au43qLmQrbk9a7mhgsOMKEEn4+RmafnKd8l3WDWx8EsgaSq7ViGa3/j+WAS4SDmx9E5tOR624lQei8ytzvysoaJcCd5WSFgkVmiQxOyWIYR9gdgGHqUBKJ+qgIBFh5gNlcriGWfuKmRzYxVcxU1SxV/HZkISnkMnvBVrJeAgoifRXYducDNgIgfcxB6UPixT6dRwcu24uDGsnKY+hs/3Y6lMb0EaD0h3XybrHk/ki0UnDutY6cIsUJtUMkZjx4c1PesRh1SOV8jceQRwb7RhaaUEaMXXJOYLYDt0BiRmHrwRbF/aLxDpoRC1AsbqbjbmTvPh44i8n4CzfVaqNIEfYuQIgEk2BkNsL9JqDEZg3NBcOSvc4TyqP3QBbq7H/3r9tdPXzz77O6jx6+++MF//v7LF//46e2TH8LH3V/+evvxL+QxJTGa4KlPhEKT1sGB1XgAjqZBSOUHKPle4jIBu7gQLYBeI9XKikW722sf91sioWhgys67i4QHQx+vwyRbjuUhxEbiSs3UEySJM0kTlFoXsB3C676MQt61XpMidR5/H6O0xcvnn718/qd7uZXBsuJiP3y4V7Xrr6090P/bG3S69vBpQDZ76azxoGrtVev1HHGJBo1gZILeTtup5zkN23po1RuWrZO5px15G1EZpSRN8Mws8UlQO0wCFq21C+TXKVI4/gRCRKNlKOQWykW/+PGrPz8uUCnrKkhRCigXJpH0JjNdCNEno4kxHp6N2l1j0h1zP8lwOTop/GuI1e46ngpOFQQJ9r8FgzIfk40KtIAVI7w0CHbnxhoiMReHBWfbBpUbvaHIspbHUZgs5Y3kGDLoFkqdTbZybMk1AifsuZF0MtQWcqnr7d8+38agDqLc7CygTE98eRgqYCQoh1dR++k/X3z54Ytnz+6e/uz2y+8XJKh99CAEfg7RlF9qt4eUp+pNCYLOx8KYV9Z3c/VFAXnneBrSgMWOvS+aRrVCwGpzaeI36i2g5AnBwl4AL0HQOzju3jAV2M4JMosA0HOJodqGWbOtATKHZ3b9929+e/erz+8+efrqwz/efvSH248/efn8d6+e/F5G3d3jp3c/eaKyfLkQCF14Cy+7QEMMhK7Bo9Hgtdv46oOfG0HIDOg5jERkpK8++DQnjCsqupNMMvR0WpGiChukeWbOZ+RU0ToU+DSLbADavIQ1NIUqYuGSutkm71W5KB53AvGN3qSaxMQIoZ36JpykSJwx/698ikWW1NO3rLpdV1ipDT/CFMc50x/74RSajBQhJq4SSYHr6xkyWrHfcX/YavYzEqnEMPJgQLP42Mg/UNpT8pLSi9OVniwyCGCh8XMTnw/JG2SbKC05l8ZMNW1eNj2e/rbPZgUKGNijSDZEgXq9HCdL6IbTN4n78eKhJtcAn8heNd8SZ+tep4iHdQ4LhbCI5gCBF6lJoWSa6sV8sJXt7Ak3TbYEXOFxB8yhHihlp3UNfWVk8rzTjaIw2pp8MkxKNoBOGjKKmVlc04g7lV23l91VCkgTnv6Qo586YdghPmG7vd6ZGfcgvH5jXrj7XVl78dD3lDF3Gz20WTIB+SdM7ij/7wumdLZmFEFjxV88dn5yTCfXEQy8O2ojjyIY+QgIu6s3wSMaxexdngnUl4RcaMiF7FAFifwQ6wvxSCK/1CGVdLOgZhq6TD4kh36fLuiOY6GVxndRCNhyuZQtXG83T+Gl5YTcQIOZkwBJcfo9KBt85NlNmnRYyKWanz/WxHQ2Z7sq9tYUE49Mrao7JfXqA886qD4kpFG1bfgfu/W6Ze3xlx4lHDIHJasdNzHTC8v+wOP8FysPGvUZGgAA</t>
+          <t>8RsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpTWN8wy0M2OUMkyJLmO81KMyJE1NUUq5NC23lIgQYo0RVEUmyK9ok8pCnS7aBMg3e3lX4K1d/vUX+iZC6+Ss6W78MKcc5szZ851jN66WbraFQlC6nuPK/WaUdGIZ/sO9S4eVyI2r9Z3Km9ZqHdjE/cEB3hJGBBrwOWFBzchfVxZMLY60PXr6+vadaPmBxe6aRh1/Z3hYGIvyBJXqRcy7NmkknA5b+aqWKjjLIeEYQczLDkfV/qTfq1DqN0F2BB7+IIEtXYUUo+EYc9jlFEScs6AYEY63eH35MEss7ZTqyN9A55StiPqOpIuRynhig62JVO6JJZpmEbV2Kuazamxd2A2D8zdWnNv792YMSFEAxyyCQmuqC0AE4aXK8Fu7JlN/t/cRfpWIpCVGsBCI9cZkysaEqdDXDcsZRFdXWDLZnDqcsY0kJ7hVYIersJRgFeLKWUuKct+6AfEBkM9aO9jcj0KlP2mqwFgpwsasHUXr0vLOg1JMFpxa5RjtVDX91jLJQE7XcGlEgfuHBAWCyKC9HuQKVOXhjZ8Uy8ijjXHbphlyiHRmR9chitsk2MIWJ3LuPZcHzvgWYyGjNphKmADg04CfwUiYfe27zqHIFapuAWRiO57YGO+b9v3L4vS80gknEC4A1zqErOYfAOOJgv/euS560k0C+2AzojTbcfUW3GIh57i7kQh85egRQpCEpaBrOEfhFoRjLrEpkvsnrhgxdBqgJQcALUi5s8p6/hutPQScxag6AxONCU3yQmTNRrB7Xrc6L7X92J6aeatqDzD2L9O9txECCNkwK3Qjp1sE1Ek7gIsvr5NjLgRfspD6kIlyN5FBpr3ismCELbVJSQG8aR3yGuL1V4fR8sZxNcMguxK7BoiPcUj8FNwdtDLMqBeVMXP1DAOxA/okaBRz3Pup4uRCLbL7GXVAVcAITiT23axdwnQM8oWx634LFswSFrgXvpNHILQXbl4LcCJlbIw1PdsN3KIzAh9by5clOumqO/Fow3QAIKcJwQyx5ELRYdByrhIs0EBjFrhZZEmC0KngRtfqMVLegg13XaWNRuSIa9bNdtfcoAOpfRsgvQsPc/oNul5FwPsXUSQMxMzFeGJO/FwnwbYC/l5khRZ8KztRCg2u0zdlryLUSS8Rd6FD1ikF+jQlCxXfoDdIRiGHkaeqIMq/4Mlh5gt1ApC1SV2xsoxa8KV1yxW/E1kIubkMXg+V6FcAAoifhbZPWTiMgUifsyh70ABxy6dBTkn2oqDG0urXexO/HQlK198CdBCQjb5LlnzviJdKPh0vSJWPUaIFeqAStZk3NwzHxkNEzI1XyNx5DHBrtaD5pIRre9dkZAtge1AG5OQOvBFsXugvU1mhEJQCxupsCrNneVDhwF5L4ImeS1UaYG+eUieAPLnBfWwu0mYYFIG65zgwF1nCOVRB74NdHc/+tftr5+9fP753cdPXn/5wX/+/suX//jp7dMP4ePuL3+9/eQX8piSGE3xzCVCoWl7b89oNMHREhDixtVFqXcimwnY+bmo8MkaqZZULDq9fudo0AaPygBjdt48RDwYBnjtR+lyIg8hNhJXqseeIEmsqZCXrnPYLuFlXUYh7z6vSJ46i7+PUdri1YvPX734073cymBp7ajv7z+q1s03lhbTqNc36JLSwrt62cupmaHerBqPqqaZIS7QoDGMPtC6JXbqO1ajbuwbZsOox/oDLHbkbURFlJI0xRd6gU+COn7ksWCduEB2HSOF408hRBK0DIXMQrnolz9+/ecnOSplXQXJSwHl/CiQ3qTHCyH6eDzVJqPTcaenTXsT7icpLkMnhX8Dsdo9iaecU3lehN3vwMDLx12tAh1eRfPnGsH2QltDJGbiMOds26ByoweKLGp5FPjRSt5IhiGFbqFMsslWji25RuCEPTeSToraQi51vf3bF9sY1EGUm516lFnjYVtbeolfChjKYSQog1dR+9k/X3710cvnz++e/ez2qx/mJKh9kjkH/ByiKbtM3B5Snqo3BQg6mwhjXhrfz9QXBeSN4YlPPRZa9R3RE6oVAtY6lyZ+o/4SSp4QLOwF8AIEvY3D3g1TgW0dIz0PAD1XGKqtn/bSCUDm8NSu//7Nb+9+9cXdp89ef/TH24//cPvJp69e/O7109/LqLt78uzuJ09Vli8WAqEL79BlG6iJec/WeDRqvHZrX7//c83zmQY9hxaJjPT1+59lhHFFRXeSSoaeLlEkr8IGaZaZ82kZVRIdcnwJi2wAOryENRIKVcT8FbXTTd6tclE87gTiW/1pNQqJ5kM79W04SZ44Zf5f+RSLLKknu4ZZNxVWasOPMMNhxvRHrj+DJiNGiIGqQJLj+maGlFbsdzQYtVuDlEQqMQocmL8MPhXyD9QP464yGRZSCGCh2bMjl8+9G2SbKBR/ZVKXrgbIecvhKW/7uJWjgBk8CGQT5KmXx0m0gg44fma4Hy/eXjJN77HsT7NtcLrud/N4WGewUPzyaA4QeJGOFEqmpn7IZ1XZwh5z06RLwOXea8Ac6nFRdldX0EsGOs81vSDwg60JJ8XEZEPoniGL6KnFExqdbyk7bSe9qxgQJ7nkg/fqSS70u8QlrPTLW8w99K8ezAt3X5a1H45cRxmz3LiRmCUVkH1+5I5SVplWEEDbxJ8rSr8XDqh32S93egvvmoZTN419PN8xHGfP2d0xjR1jdx83cWMXWnkplI+fXASfXPjsVm4TaBbz7OmgPYbRu6Q0aWDByIdRsJQISJXYkzU6pEHI3uEpSn1JyHkCOZetsyCRH2J9Lh5n5Jd6k1ab6Tmt4/zC5Eu17w7okpacV404CeWFgBusVrK3LHuhUPOOyQ10vhkJkK1nP4B6xmexctJkVEGST/hjWZNoVlqcHjOfAJ471sO4ew70ZQ/nFs++1P0/FBCd10NF9L2QXixY2Xs19/cbZIeYVXNu29UmLKpQjWdVB8/364YxbziPTP5Ap4RDdaDkuuQmvKbQEOaK8nx64Q931n8Bp/QQX/EbAAA=</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -449,4 +449,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>11</EndRow>
+          <EndCol>1</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{284DFA2A-F4D5-4CF7-A8EA-088A4CA623D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_64.xlsx
+++ b/Testdata/TC_64.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpTWN8wy0M2OUMkyJLmO81KMyJE1NUUq5NC23lIgQYo0RVEUmyK9ok8pCnS7aBMg3e3lX4K1d/vUX+iZC6+Ss6W78MKcc5szZ851jN66WbraFQlC6nuPK/WaUdGIZ/sO9S4eVyI2r9Z3Km9ZqHdjE/cEB3hJGBBrwOWFBzchfVxZMLY60PXr6+vadaPmBxe6aRh1/Z3hYGIvyBJXqRcy7NmkknA5b+aqWKjjLIeEYQczLDkfV/qTfq1DqN0F2BB7+IIEtXYUUo+EYc9jlFEScs6AYEY63eH35MEss7ZTqyN9A55StiPqOpIuRynhig62JVO6JJZpmEbV2Kuazamxd2A2D8zdWnNv792YMSFEAxyyCQmuqC0AE4aXK8Fu7JlN/t/cRfpWIpCVGsBCI9cZkysaEqdDXDcsZRFdXWDLZnDqcsY0kJ7hVYIersJRgFeLKWUuKct+6AfEBkM9aO9jcj0KlP2mqwFgpwsasHUXr0vLOg1JMFpxa5RjtVDX91jLJQE7XcGlEgfuHBAWCyKC9HuQKVOXhjZ8Uy8ijjXHbphlyiHRmR9chitsk2MIWJ3LuPZcHzvgWYyGjNphKmADg04CfwUiYfe27zqHIFapuAWRiO57YGO+b9v3L4vS80gknEC4A1zqErOYfAOOJgv/euS560k0C+2AzojTbcfUW3GIh57i7kQh85egRQpCEpaBrOEfhFoRjLrEpkvsnrhgxdBqgJQcALUi5s8p6/hutPQScxag6AxONCU3yQmTNRrB7Xrc6L7X92J6aeatqDzD2L9O9txECCNkwK3Qjp1sE1Ek7gIsvr5NjLgRfspD6kIlyN5FBpr3ismCELbVJSQG8aR3yGuL1V4fR8sZxNcMguxK7BoiPcUj8FNwdtDLMqBeVMXP1DAOxA/okaBRz3Pup4uRCLbL7GXVAVcAITiT23axdwnQM8oWx634LFswSFrgXvpNHILQXbl4LcCJlbIw1PdsN3KIzAh9by5clOumqO/Fow3QAIKcJwQyx5ELRYdByrhIs0EBjFrhZZEmC0KngRtfqMVLegg13XaWNRuSIa9bNdtfcoAOpfRsgvQsPc/oNul5FwPsXUSQMxMzFeGJO/FwnwbYC/l5khRZ8KztRCg2u0zdlryLUSS8Rd6FD1ikF+jQlCxXfoDdIRiGHkaeqIMq/4Mlh5gt1ApC1SV2xsoxa8KV1yxW/E1kIubkMXg+V6FcAAoifhbZPWTiMgUifsyh70ABxy6dBTkn2oqDG0urXexO/HQlK198CdBCQjb5LlnzviJdKPh0vSJWPUaIFeqAStZk3NwzHxkNEzI1XyNx5DHBrtaD5pIRre9dkZAtge1AG5OQOvBFsXugvU1mhEJQCxupsCrNneVDhwF5L4ImeS1UaYG+eUieAPLnBfWwu0mYYFIG65zgwF1nCOVRB74NdHc/+tftr5+9fP753cdPXn/5wX/+/suX//jp7dMP4ePuL3+9/eQX8piSGE3xzCVCoWl7b89oNMHREhDixtVFqXcimwnY+bmo8MkaqZZULDq9fudo0AaPygBjdt48RDwYBnjtR+lyIg8hNhJXqseeIEmsqZCXrnPYLuFlXUYh7z6vSJ46i7+PUdri1YvPX734073cymBp7ajv7z+q1s03lhbTqNc36JLSwrt62cupmaHerBqPqqaZIS7QoDGMPtC6JXbqO1ajbuwbZsOox/oDLHbkbURFlJI0xRd6gU+COn7ksWCduEB2HSOF408hRBK0DIXMQrnolz9+/ecnOSplXQXJSwHl/CiQ3qTHCyH6eDzVJqPTcaenTXsT7icpLkMnhX8Dsdo9iaecU3lehN3vwMDLx12tAh1eRfPnGsH2QltDJGbiMOds26ByoweKLGp5FPjRSt5IhiGFbqFMsslWji25RuCEPTeSToraQi51vf3bF9sY1EGUm516lFnjYVtbeolfChjKYSQog1dR+9k/X3710cvnz++e/ez2qx/mJKh9kjkH/ByiKbtM3B5Snqo3BQg6mwhjXhrfz9QXBeSN4YlPPRZa9R3RE6oVAtY6lyZ+o/4SSp4QLOwF8AIEvY3D3g1TgW0dIz0PAD1XGKqtn/bSCUDm8NSu//7Nb+9+9cXdp89ef/TH24//cPvJp69e/O7109/LqLt78uzuJ09Vli8WAqEL79BlG6iJec/WeDRqvHZrX7//c83zmQY9hxaJjPT1+59lhHFFRXeSSoaeLlEkr8IGaZaZ82kZVRIdcnwJi2wAOryENRIKVcT8FbXTTd6tclE87gTiW/1pNQqJ5kM79W04SZ44Zf5f+RSLLKknu4ZZNxVWasOPMMNhxvRHrj+DJiNGiIGqQJLj+maGlFbsdzQYtVuDlEQqMQocmL8MPhXyD9QP464yGRZSCGCh2bMjl8+9G2SbKBR/ZVKXrgbIecvhKW/7uJWjgBk8CGQT5KmXx0m0gg44fma4Hy/eXjJN77HsT7NtcLrud/N4WGewUPzyaA4QeJGOFEqmpn7IZ1XZwh5z06RLwOXea8Ac6nFRdldX0EsGOs81vSDwg60JJ8XEZEPoniGL6KnFExqdbyk7bSe9qxgQJ7nkg/fqSS70u8QlrPTLW8w99K8ezAt3X5a1H45cRxmz3LiRmCUVkH1+5I5SVplWEEDbxJ8rSr8XDqh32S93egvvmoZTN419PN8xHGfP2d0xjR1jdx83cWMXWnkplI+fXASfXPjsVm4TaBbz7OmgPYbRu6Q0aWDByIdRsJQISJXYkzU6pEHI3uEpSn1JyHkCOZetsyCRH2J9Lh5n5Jd6k1ab6Tmt4/zC5Eu17w7okpacV404CeWFgBusVrK3LHuhUPOOyQ10vhkJkK1nP4B6xmexctJkVEGST/hjWZNoVlqcHjOfAJ471sO4ew70ZQ/nFs++1P0/FBCd10NF9L2QXixY2Xs19/cbZIeYVXNu29UmLKpQjWdVB8/364YxbziPTP5Ap4RDdaDkuuQmvKbQEOaK8nx64Q931n8Bp/QQX/EbAAA=</t>
+          <t>GRoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlktLa8RqzDHSzI1SyDEmu47wUI3IsTU2RCjm0rLcUaJEiTVEUxaZIr+hTigLdLtoESHd7+Zdg7d0+9Rd65sLhRXK22i6MNefc5syZcx2jt28WvnFNopiGwaOKXbMqBgnc0KPB7FElYZdVe7/ytoO6Ny7xT3GEF4QBsQFcQXx4E9NHlTljy0PTXK1WtVWjFkYzs25ZtvnuoD9252SBqzSIGQ5cUtFc3uu5Kg5qe4sBYdjDDEvOR5XeuFdrE+p2ADbAAZ6RqNZKYhqQOO4GjDJKYs4ZEcxIuzP4jjyYU6/t12xkbsAzylZCfU/SFSglXNHBtmRCF8SpW/ZB1TqoNuyJbR/W9w8bjdrewf57KaMmRH0cszGJrqkrAGOGF0vBbh00bNuu7zcayNxKBLIyAzho6Hsjck1j4rWJ78c7WcRUF9h0GZx6N2NayMzxKkFvrsJxhJfzCWU+2U2N0aBlLAKlSybEQUdhRFyw3xupdEJWw0iZdbLsA3YypxFbd/B6Z1lnMYmGS26k3Vgd1AkD1vRJxM6WcNfEA1cAhMOihCDzHmTG1KGxC980SIjnXGI/zjMVkOg8jK7iJXbJCcSxyWWsAj/EHjgcozGjbpwJ2MCg0yhcgkjYvRX63hGIVSpuQWjRvQBszPdtheFVWXoRicS1iguGS11glpJvwNF4Hq6Ggb8eJ9PYjeiUeJ1WSr0Vh3hEKu52ErNwAVpkICRhOcga/kEElsGoQ1y6wP6pD1aMHYjdIgA1ExZeUtYO/WQRaHOWoOgcTjQhN/qEeo2GcLsBN3oY9IKUXpp5K6rIMApXes9NhDBCDtyM3dTJNhFl4g7A0uvbxIgb4ac8oj4UiPxd5KBFrxjPCWFbXUJiEM+FR7zkOK31SbKYQnxNIciuxa4xMjM8Aj8FZwe9HAvKSFX8TCzrUPyAHhqNuoF3P12KRLBdbi/HBlwJhOBMfsvHwRVAzymbnzTTs2zBIGmBe+k3cQhCd+njtQBrK+VhqBe4fuIRmRF6waVwUa6bor4XjzZAfQhyB+FgPVkveWYw76HokEuc+FCsGOSUWZYuSmDUjK/KNHkQOov89MYd3grE0Au43qLmQrbk9a7mhgsOMKEEn4+RmafnKd8l3WDWx8EsgaSq7ViGa3/j+WAS4SDmx9E5tOR624lQei8ytzvysoaJcCd5WSFgkVmiQxOyWIYR9gdgGHqUBKJ+qgIBFh5gNlcriGWfuKmRzYxVcxU1SxV/HZkISnkMnvBVrJeAgoifRXYducDNgIgfcxB6UPixT6dRwcu24uDGsnKY+hs/3Y6lMb0EaD0h3XybrHk/ki0UnDutY6cIsUJtUMkZjx4c1PesRh1SOV8jceQRwb7RhaaUEaMXXJOYLYDt0BiRmHrwRbF/aLxDpoRC1AsbqbjbmTvPh44i8n4CzfVaqNIEfYuQIgEk2BkNsL9JqDEZg3NBcOSvc4TyqP3QBbq7H/3r9tdPXzz77O6jx6+++MF//v7LF//46e2TH8LH3V/+evvxL+QxJTGa4KlPhEKT1sGB1XgAjqZBSOUHKPle4jIBu7gQLYBeI9XKikW722sf91sioWhgys67i4QHQx+vwyRbjuUhxEbiSs3UEySJM0kTlFoXsB3C676MQt61XpMidR5/H6O0xcvnn718/qd7uZXBsuJiP3y4V7Xrr6090P/bG3S69vBpQDZ76azxoGrtVev1HHGJBo1gZILeTtup5zkN23po1RuWrZO5px15G1EZpSRN8Mws8UlQO0wCFq21C+TXKVI4/gRCRKNlKOQWykW/+PGrPz8uUCnrKkhRCigXJpH0JjNdCNEno4kxHp6N2l1j0h1zP8lwOTop/GuI1e46ngpOFQQJ9r8FgzIfk40KtIAVI7w0CHbnxhoiMReHBWfbBpUbvaHIspbHUZgs5Y3kGDLoFkqdTbZybMk1AifsuZF0MtQWcqnr7d8+38agDqLc7CygTE98eRgqYCQoh1dR++k/X3z54Ytnz+6e/uz2y+8XJKh99CAEfg7RlF9qt4eUp+pNCYLOx8KYV9Z3c/VFAXnneBrSgMWOvS+aRrVCwGpzaeI36i2g5AnBwl4AL0HQOzju3jAV2M4JMosA0HOJodqGWbOtATKHZ3b9929+e/erz+8+efrqwz/efvSH248/efn8d6+e/F5G3d3jp3c/eaKyfLkQCF14Cy+7QEMMhK7Bo9Hgtdv46oOfG0HIDOg5jERkpK8++DQnjCsqupNMMvR0WpGiChukeWbOZ+RU0ToU+DSLbADavIQ1NIUqYuGSutkm71W5KB53AvGN3qSaxMQIoZ36JpykSJwx/698ikWW1NO3rLpdV1ipDT/CFMc50x/74RSajBQhJq4SSYHr6xkyWrHfcX/YavYzEqnEMPJgQLP42Mg/UNpT8pLSi9OVniwyCGCh8XMTnw/JG2SbKC05l8ZMNW1eNj2e/rbPZgUKGNijSDZEgXq9HCdL6IbTN4n78eKhJtcAn8heNd8SZ+tep4iHdQ4LhbCI5gCBF6lJoWSa6sV8sJXt7Ak3TbYEXOFxB8yhHihlp3UNfWVk8rzTjaIw2pp8MkxKNoBOGjKKmVlc04g7lV23l91VCkgTnv6Qo586YdghPmG7vd6ZGfcgvH5jXrj7XVl78dD3lDF3Gz20WTIB+SdM7ij/7wumdLZmFEFjxV88dn5yTCfXEQy8O2ojjyIY+QgIu6s3wSMaxexdngnUl4RcaMiF7FAFifwQ6wvxSCK/1CGVdLOgZhq6TD4kh36fLuiOY6GVxndRCNhyuZQtXG83T+Gl5YTcQIOZkwBJcfo9KBt85NlNmnRYyKWanz/WxHQ2Z7sq9tYUE49Mrao7JfXqA886qD4kpFG1bfgfu/W6Ze3xlx4lHDIHJasdNzHTC8v+wOP8FysPGvUZGgAA</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -449,37 +449,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>11</EndRow>
-          <EndCol>1</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{284DFA2A-F4D5-4CF7-A8EA-088A4CA623D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>